--- a/기획/테이블/아이템/아이템 제작재료 테이블.xlsx
+++ b/기획/테이블/아이템/아이템 제작재료 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4F045-180D-47DC-997E-26310D83E286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B49DE-DC76-4CC9-8041-91E3A98E3C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1125" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="3420" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,8 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -373,7 +376,7 @@
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -383,6 +386,161 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>20000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>20004</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C4">
+        <v>20002</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C5">
+        <v>20003</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5002</v>
+      </c>
+      <c r="C6">
+        <v>20004</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>20000</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>20003</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C9">
+        <v>20001</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C10">
+        <v>20002</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15001</v>
+      </c>
+      <c r="C11">
+        <v>20002</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
